--- a/noutbuki.xlsx
+++ b/noutbuki.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Ноутбуки Apple" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ноутбуки Apple'!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ноутбуки Apple'!$A$1:$F$83</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -507,25 +507,21 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>MacBook Pro M3 (2023) MTL73</t>
+          <t>Ноутбук Apple Macbook Pro 14.2'' M3 2023 8GB/512GB</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>4020</v>
+        <v>4500</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Брест</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n"/>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1002218508?r_block=all&amp;rank=0&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1018018386</t>
         </is>
       </c>
     </row>
@@ -535,23 +531,21 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 13 M3 8 GB / 16 GB , 256 GB / 512 GB НОВЫЕ, ГАРАНТИЯ</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n"/>
+          <t>Ноутбук Apple Macbook Air 13 M3 8/256</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3100</v>
+      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Гомель</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/228178288?r_block=all&amp;rank=1&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1018017827</t>
         </is>
       </c>
     </row>
@@ -561,7 +555,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 15 M3 8 GB / 16 GB 256 GB / 512 GB НОВЫЕ, ГАРАНТИЯ</t>
+          <t>Apple MacBook Air 13 M3 8 GB / 16 GB , 256 GB / 512 GB НОВЫЕ, ГАРАНТИЯ</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -570,14 +564,10 @@
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/228185710?r_block=all&amp;rank=2&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/228178288</t>
         </is>
       </c>
     </row>
@@ -587,25 +577,19 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook air 13 m3 16/512 НОВЫЕ</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>3790</v>
-      </c>
+          <t>Apple MacBook Air 15 M3 8 GB / 16 GB 256 GB / 512 GB НОВЫЕ, ГАРАНТИЯ</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1007129156?r_block=all&amp;rank=3&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/228185710</t>
         </is>
       </c>
     </row>
@@ -615,25 +599,21 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>MacBook Air M3 16/512 13.6 Midnight</t>
+          <t>Ноутбук apple air 13',М3,8/256</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Гомель</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n"/>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016643128?r_block=all&amp;rank=4&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017987336</t>
         </is>
       </c>
     </row>
@@ -643,25 +623,21 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>MacBook Air 13 M3 16/256 Silver</t>
+          <t>MacBook Pro 14 M3 8/512 2023 Space Gray</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>3350</v>
+        <v>3700</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Витебск</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n"/>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1017119205?r_block=all&amp;rank=5&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1013739708</t>
         </is>
       </c>
     </row>
@@ -671,25 +647,21 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple Macbook Air 15'' M3 2024 MC9F4 15</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/512GB (MXD43), тёмная ночь (midnigh</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>3600</v>
+        <v>3810</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Московский</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1017112416?r_block=all&amp;rank=6&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951184</t>
         </is>
       </c>
     </row>
@@ -699,25 +671,21 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple MacBook Air 13 M3 16GB 256 Midnight</t>
+          <t>Apple Macbook Air 15'' M3 2024 MC9F4 15</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>3290</v>
+        <v>3600</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Московский</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E9" s="2" t="n"/>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1017029320?r_block=all&amp;rank=7&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017902754</t>
         </is>
       </c>
     </row>
@@ -727,25 +695,21 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 15 M3 8 GB / 16 GB , 256 GB / 512 GB ВСЕ ЦВЕТА, ГАРАНТИЯ</t>
+          <t>Apple MacBook Air 13 M3 24/512GB Space Gray</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>3550</v>
+        <v>3800</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E10" s="2" t="n"/>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1008679162?r_block=all&amp;rank=8&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017826627</t>
         </is>
       </c>
     </row>
@@ -755,25 +719,21 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 24/512GB (MC8Q4), Тёмная ночь (Midnight)</t>
+          <t>15-inch MacBook Air with M3 chip - Midnight</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>4570</v>
+        <v>3600</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Первомайский</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n"/>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016951165?r_block=all&amp;rank=9&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016703636</t>
         </is>
       </c>
     </row>
@@ -783,25 +743,21 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>(новый. запечатан.) Ноутбук Apple MacBook Air 13 2024 M3 8/512GB (MLY23), cияющая звезда (starlight)</t>
+          <t>Apple MacBook Air 15 M3 8 GB / 16 GB , 256 GB / 512 GB ВСЕ ЦВЕТА, ГАРАНТИЯ</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>3050</v>
+        <v>3550</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E12" s="2" t="n"/>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016951188?r_block=all&amp;rank=10&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1008679162</t>
         </is>
       </c>
     </row>
@@ -811,25 +767,21 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 13 2024 M3 8/256GB (MRXV3), тёмная ночь (midnight</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/512GB (MXD33), сияющая звезда (star</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>3110</v>
+        <v>4250</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E13" s="2" t="n"/>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016951181?r_block=all&amp;rank=11&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951166</t>
         </is>
       </c>
     </row>
@@ -839,25 +791,21 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/512GB (MXD43), тёмная ночь (midnigh</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/256GB (MC9G4), тёмная ночь (midnigh</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>3120</v>
+        <v>4250</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E14" s="2" t="n"/>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016951184?r_block=all&amp;rank=12&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951169</t>
         </is>
       </c>
     </row>
@@ -867,23 +815,21 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 13 M3 8GB / 16GB , 256GB / 512GB</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n"/>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 8/256GB (MRYP3), серебристый (silver)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>3940</v>
+      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E15" s="2" t="n"/>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/228798429?r_block=all&amp;rank=13&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951170</t>
         </is>
       </c>
     </row>
@@ -893,25 +839,21 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Macbook air 13 m3 8 256gb</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 8/256GB (MRYU3), тёмная ночь (midnight</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>3050</v>
+        <v>3920</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Заводской</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n"/>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1011586575?r_block=all&amp;rank=14&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951171</t>
         </is>
       </c>
     </row>
@@ -921,25 +863,21 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 / M3 / новый</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 8/256GB (MRYR3), сияющая звезда (starl</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>3700</v>
+        <v>3920</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Московский</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n"/>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016812090?r_block=all&amp;rank=15&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951173</t>
         </is>
       </c>
     </row>
@@ -949,25 +887,21 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>MacBook air 15 M3(2024) 8/256 Midnight</t>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 16/512GB (MXCV3), Темная ночь (Midnight)</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>3310</v>
+        <v>3580</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Партизанский</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n"/>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016724514?r_block=all&amp;rank=16&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951174</t>
         </is>
       </c>
     </row>
@@ -977,25 +911,21 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>НОВЫЙ MacBook Air 15’ M3 16/256GB Silver</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/256GB (MC9F4), сияющая звезда (star</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>3820</v>
+        <v>3720</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E19" s="2" t="n"/>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016000521?r_block=all&amp;rank=17&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951176</t>
         </is>
       </c>
     </row>
@@ -1005,25 +935,21 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple Macbook Air 15'' M3 2024 MXD23 15</t>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 16/512GB (MXCU3), золотистый (Starlight)</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>4400</v>
+        <v>3550</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E20" s="2" t="n"/>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016715265?r_block=all&amp;rank=18&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951177</t>
         </is>
       </c>
     </row>
@@ -1033,25 +959,21 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>15-inch MacBook Air with M3 chip - Midnight</t>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 8/512GB (MRXP3), серый Космос (space gray)</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>3700</v>
+        <v>3240</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Первомайский</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n"/>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016703636?r_block=all&amp;rank=19&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951178</t>
         </is>
       </c>
     </row>
@@ -1061,25 +983,21 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Новый MacBook Air 15 M3 8/256 Silver</t>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 8/512GB (MRXW3), Тёмная ночь (Midnight)</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>3540</v>
+        <v>3230</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E22" s="2" t="n"/>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1009238195?r_block=all&amp;rank=20&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951179</t>
         </is>
       </c>
     </row>
@@ -1089,25 +1007,21 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air 13'' M3 2024</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 13 2024 M3 8/256GB (MRXN3), серый космос (space g</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>2800</v>
+        <v>3140</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Ленинский</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n"/>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016401248?r_block=all&amp;rank=21&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951180</t>
         </is>
       </c>
     </row>
@@ -1117,25 +1031,21 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple Macbook Air 13'' M3 2024 MXCT3</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 13 2024 M3 8/256GB (MRXV3), тёмная ночь (midnight</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>4100</v>
+        <v>3140</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Первомайский</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n"/>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016288496?r_block=all&amp;rank=22&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951181</t>
         </is>
       </c>
     </row>
@@ -1145,25 +1055,21 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>MacBook Pro 14’ M3 8/1TB</t>
+          <t>Macbook Apple  Air 13'' M3</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3480</v>
+        <v>3000</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Заводской</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n"/>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016281106?r_block=all&amp;rank=23&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017718223</t>
         </is>
       </c>
     </row>
@@ -1173,25 +1079,21 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple Macbook Pro 14 M3 1tb</t>
+          <t>Apple MacBook Air 15 M3 16/256 Midnight MC9G4</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>3590</v>
+        <v>3725</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Октябрьский</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n"/>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1016277108?r_block=all&amp;rank=24&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1010578924</t>
         </is>
       </c>
     </row>
@@ -1201,25 +1103,21 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 15 M3 16/256 Midnight MC9G4</t>
+          <t>Apple Macbook Pro 14.2'' M3 2023 (MTL73) 512GB</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>3725</v>
+        <v>4340</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Фрунзенский</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n"/>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1010578924?r_block=all&amp;rank=25&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1004858755</t>
         </is>
       </c>
     </row>
@@ -1229,25 +1127,21 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air 15'' M4  2025 16/256,512 24,32/512</t>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 24/512GB (MC8Q4), Тёмная ночь (Midnight)</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>4650</v>
+        <v>3910</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n"/>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/230328983?r_block=all&amp;rank=26&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951165</t>
         </is>
       </c>
     </row>
@@ -1257,25 +1151,19 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Apple Macbook Pro 14.2'' M3 2023 (MTL73) 512GB</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>4199</v>
-      </c>
+          <t>Apple MacBook Air 13 M3 8GB / 16GB , 256GB / 512GB</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n"/>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n"/>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1004858755?r_block=all&amp;rank=27&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/228798429</t>
         </is>
       </c>
     </row>
@@ -1285,25 +1173,21 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air 13'' M3 2024 16/256,512 24/512</t>
+          <t>(новый. запечатан.) Ноутбук Apple MacBook Air 13 2024 M3 8/512GB (MLY23), cияющая звезда (starlight)</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n"/>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/230328301?r_block=all&amp;rank=28&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016951188</t>
         </is>
       </c>
     </row>
@@ -1313,25 +1197,21 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air Apple 13 Inch M3 Chip</t>
+          <t>MacBook air 15 M3(2024) 8/256 Midnight</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>3200</v>
+        <v>3230</v>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Партизанский</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n"/>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1015715022?r_block=all&amp;rank=29&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016724514</t>
         </is>
       </c>
     </row>
@@ -1341,25 +1221,21 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air M3 15 8/256GB</t>
+          <t>MacBook Air M3 16/512 13.6 Midnight</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>3750</v>
+        <v>3100</v>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Первомайский</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n"/>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1015136353?r_block=all&amp;rank=30&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1016643128</t>
         </is>
       </c>
     </row>
@@ -1369,25 +1245,21 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>macbook air m3</t>
+          <t>Ноутбук Apple Macbook Air 13'' M3 2024 MXCT3</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>2700</v>
+        <v>3950</v>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Кобрин, Брестская</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Первомайский</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n"/>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1014992862?r_block=all&amp;rank=31&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017465325</t>
         </is>
       </c>
     </row>
@@ -1397,25 +1269,21 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air M3 15’ 16/256 НОВЫЙ</t>
+          <t>Apple MacBook Air 15 M3 8GB/16GB , 256GB/512GB ВСЕ ЦВЕТА, ГАРАНТИЯ</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>4060</v>
+        <v>3550</v>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E34" s="2" t="n"/>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1008462406?r_block=all&amp;rank=32&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017389827</t>
         </is>
       </c>
     </row>
@@ -1425,25 +1293,21 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>APPLE MACBOOK AIR M3 15’’ НОВЫЙ</t>
+          <t>Apple MacBook Air 13 M3 8GB/16GB , 256GB/512GB НОВЫЕ , ГАРАНТИЯ</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>3890</v>
+        <v>2990</v>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E35" s="2" t="n"/>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/235065087?r_block=all&amp;rank=33&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017385670</t>
         </is>
       </c>
     </row>
@@ -1453,25 +1317,21 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>MacBook Pro 14 M3 8/512 2023 Space Gray</t>
+          <t>Apple MacBook Air 13'' M3 2024 8/16Gb-256/512Gb</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>4000</v>
+        <v>3090</v>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Фрунзенский</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n"/>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1013739708?r_block=all&amp;rank=34&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/228742674</t>
         </is>
       </c>
     </row>
@@ -1481,23 +1341,21 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 13 M3 8 GB / 16 GB 256 GB / 512 GB НОВЫЕ, ПОДАРОК, ГАРАНТИЯ</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n"/>
+          <t>Ноутбук Apple MacBook Air 13 M3 16GB 256 Midnight</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>3290</v>
+      </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n"/>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1013736470?r_block=all&amp;rank=35&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017029320</t>
         </is>
       </c>
     </row>
@@ -1507,23 +1365,21 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 15 M3 8 GB / 16GB 256GB / 512GB НОВЫЕ, ПОДАРОК, ГАРАНТИЯ</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n"/>
+          <t>MacBook  Air 15 M3 16/512, 2024г.</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>4950</v>
+      </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Фрунзенский</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n"/>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1013736757?r_block=all&amp;rank=36&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1010157906</t>
         </is>
       </c>
     </row>
@@ -1533,25 +1389,21 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 13'' M3 2024 8/16Gb-256/512Gb</t>
+          <t>MacBook Pro M3 (2023) MTL73</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>3100</v>
+        <v>4020</v>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n"/>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/228742674?r_block=all&amp;rank=37&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1002218508</t>
         </is>
       </c>
     </row>
@@ -1561,25 +1413,21 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Apple MacBook Air 13 M3 НОВЫЙ</t>
+          <t>Apple MacBook air 13 m3 16/512 НОВЫЕ</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>3270</v>
+        <v>3790</v>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E40" s="2" t="n"/>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/231595585?r_block=all&amp;rank=38&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1007129156</t>
         </is>
       </c>
     </row>
@@ -1589,25 +1437,21 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Macbook air 13 m3 16/256 Gb</t>
+          <t>MacBook Air 13 M3 16/256 Silver</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Светлогорск, Гомельская</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Витебск</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n"/>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1013697012?r_block=all&amp;rank=39&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1017119205</t>
         </is>
       </c>
     </row>
@@ -1617,25 +1461,21 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Apple Macbook Air 13'' M3 2024 MRXQ3, 100% 6циклов</t>
+          <t>Macbook air 13 m3 8 256gb</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>2799</v>
+        <v>3050</v>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Заводской</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n"/>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1013224788?r_block=all&amp;rank=40&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1011586575</t>
         </is>
       </c>
     </row>
@@ -1645,25 +1485,21 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>MacBook</t>
+          <t>Ноутбук Apple Macbook Pro 14.2'' M3 2023 8GB/512GB</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Брест</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n"/>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1012790700?r_block=all&amp;rank=41&amp;searchId=b95252c4454acb2381bf365a0dd1e93bdcc7</t>
+          <t>https://www.kufar.by/item/1018018386</t>
         </is>
       </c>
     </row>
@@ -1673,25 +1509,21 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>MacBook Pro 14''</t>
+          <t>Ноутбук Apple Macbook Air 13 M3 8/256</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>4990</v>
+        <v>3100</v>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Ленинский</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Гомель</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n"/>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1012264879?r_block=all&amp;rank=42&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1018017827</t>
         </is>
       </c>
     </row>
@@ -1701,25 +1533,19 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air M3</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>2900</v>
-      </c>
+          <t>Apple MacBook Air 13 M3 8 GB / 16 GB , 256 GB / 512 GB НОВЫЕ, ГАРАНТИЯ</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n"/>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Первомайский</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n"/>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1011358598?r_block=all&amp;rank=43&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/228178288</t>
         </is>
       </c>
     </row>
@@ -1729,25 +1555,19 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>MacBook Pro m3</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>7450</v>
-      </c>
+          <t>Apple MacBook Air 15 M3 8 GB / 16 GB 256 GB / 512 GB НОВЫЕ, ГАРАНТИЯ</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Гомель</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n"/>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1011318022?r_block=all&amp;rank=44&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/228185710</t>
         </is>
       </c>
     </row>
@@ -1757,25 +1577,21 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple Macbook Air 13'' M3 (2024 г.)</t>
+          <t>Ноутбук apple air 13',М3,8/256</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Заводской</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Гомель</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n"/>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1011130076?r_block=all&amp;rank=45&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1017987336</t>
         </is>
       </c>
     </row>
@@ -1785,25 +1601,21 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>MacBook Air M3(2024)</t>
+          <t>MacBook Pro 14 M3 8/512 2023 Space Gray</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>6000</v>
+        <v>3700</v>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E48" s="2" t="n"/>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1010846588?r_block=all&amp;rank=46&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1013739708</t>
         </is>
       </c>
     </row>
@@ -1813,25 +1625,21 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Ноутбук Apple macbook Air 13'' M3.8/256(2024)</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/512GB (MXD43), тёмная ночь (midnigh</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>3000</v>
+        <v>3810</v>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Гомель</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n"/>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1010692019?r_block=all&amp;rank=47&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1016951184</t>
         </is>
       </c>
     </row>
@@ -1841,25 +1649,21 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air 15 M3 2024 Новый. Гарантия</t>
+          <t>Apple Macbook Air 15'' M3 2024 MC9F4 15</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n"/>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/231228792?r_block=all&amp;rank=48&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1017902754</t>
         </is>
       </c>
     </row>
@@ -1869,25 +1673,21 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Macbook Air 13 M3 2024 16gb/256,512gb</t>
+          <t>Apple MacBook Air 13 M3 24/512GB Space Gray</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>3450</v>
+        <v>3800</v>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
           <t>Центральный</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+      <c r="E51" s="2" t="n"/>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/231228510?r_block=all&amp;rank=49&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1017826627</t>
         </is>
       </c>
     </row>
@@ -1897,25 +1697,21 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>MacBook Air M3 16/512gb</t>
+          <t>15-inch MacBook Air with M3 chip - Midnight</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Барановичи, Брестская</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Первомайский</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n"/>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1010232227?r_block=all&amp;rank=50&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1016703636</t>
         </is>
       </c>
     </row>
@@ -1925,25 +1721,21 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>MacBook  Air 15 M3 16/512, 2024г.</t>
+          <t>Apple MacBook Air 15 M3 8 GB / 16 GB , 256 GB / 512 GB ВСЕ ЦВЕТА, ГАРАНТИЯ</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>5000</v>
+        <v>3550</v>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Фрунзенский</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n"/>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>https://www.kufar.by/item/1010157906?r_block=all&amp;rank=51&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+          <t>https://www.kufar.by/item/1008679162</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1745,720 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>MacBook Air 13 M3 8/256</t>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/512GB (MXD33), сияющая звезда (star</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951166</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/256GB (MC9G4), тёмная ночь (midnigh</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951169</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 8/256GB (MRYP3), серебристый (silver)</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>3940</v>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951170</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 8/256GB (MRYU3), тёмная ночь (midnight</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>3920</v>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951171</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 8/256GB (MRYR3), сияющая звезда (starl</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>3920</v>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951173</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 16/512GB (MXCV3), Темная ночь (Midnight)</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>3580</v>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951174</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 15 2024 M3 16/256GB (MC9F4), сияющая звезда (star</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>3720</v>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951176</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 16/512GB (MXCU3), золотистый (Starlight)</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>3550</v>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951177</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 8/512GB (MRXP3), серый Космос (space gray)</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>3240</v>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951178</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 8/512GB (MRXW3), Тёмная ночь (Midnight)</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>3230</v>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951179</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 13 2024 M3 8/256GB (MRXN3), серый космос (space g</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>3140</v>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951180</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>(новый. не активирован.) Ноутбук Apple MacBook Air 13 2024 M3 8/256GB (MRXV3), тёмная ночь (midnight</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>3140</v>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951181</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Macbook Apple  Air 13'' M3</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>https://www.kufar.by/item/1010104514?r_block=all&amp;rank=52&amp;searchId=07e0842289a9d1a75553a6b9f9b22ae1bd8c</t>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Заводской</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1017718223</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 15 M3 16/256 Midnight MC9G4</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>3725</v>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1010578924</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Apple Macbook Pro 14.2'' M3 2023 (MTL73) 512GB</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>4340</v>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Фрунзенский</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1004858755</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>(новый. запечатан.) Apple MacBook Air 13 2024 M3 24/512GB (MC8Q4), Тёмная ночь (Midnight)</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>3910</v>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951165</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 13 M3 8GB / 16GB , 256GB / 512GB</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/228798429</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>(новый. запечатан.) Ноутбук Apple MacBook Air 13 2024 M3 8/512GB (MLY23), cияющая звезда (starlight)</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>3240</v>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016951188</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>MacBook air 15 M3(2024) 8/256 Midnight</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>3230</v>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Партизанский</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016724514</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>MacBook Air M3 16/512 13.6 Midnight</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1016643128</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Ноутбук Apple Macbook Air 13'' M3 2024 MXCT3</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>3950</v>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Первомайский</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1017465325</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 15 M3 8GB/16GB , 256GB/512GB ВСЕ ЦВЕТА, ГАРАНТИЯ</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>3550</v>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1017389827</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 13 M3 8GB/16GB , 256GB/512GB НОВЫЕ , ГАРАНТИЯ</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1017385670</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Apple MacBook Air 13'' M3 2024 8/16Gb-256/512Gb</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>3090</v>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>Фрунзенский</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/228742674</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Ноутбук Apple MacBook Air 13 M3 16GB 256 Midnight</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>3290</v>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1017029320</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>MacBook  Air 15 M3 16/512, 2024г.</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>4950</v>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Фрунзенский</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1010157906</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>MacBook Pro M3 (2023) MTL73</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>4020</v>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1002218508</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Apple MacBook air 13 m3 16/512 НОВЫЕ</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1007129156</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>MacBook Air 13 M3 16/256 Silver</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>3250</v>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Витебск</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1017119205</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Macbook air 13 m3 8 256gb</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Заводской</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>https://www.kufar.by/item/1011586575</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F54"/>
+  <autoFilter ref="A1:F83"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>